--- a/sa_result.xlsx
+++ b/sa_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean\Desktop\JBL project\security analytics analyzer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/790e066fc854c164/Desktop/python projects/python_projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AC80B0-A62C-4976-A311-4E74BDEBFEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F9AC80B0-A62C-4976-A311-4E74BDEBFEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{585C6191-D5C3-41B9-B949-4BDA37912BBC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1220,17 +1220,17 @@
   <dimension ref="A1:C501"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>369</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>370</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>371</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>372</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>373</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>374</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>375</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>376</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>377</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>378</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>379</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>380</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>381</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>382</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>383</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>384</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>385</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>386</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>387</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>388</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>389</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>390</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>391</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>392</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>393</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>394</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>395</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>396</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>397</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>398</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>399</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>400</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>401</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>402</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>403</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>404</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>405</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>406</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>407</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>408</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>409</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>410</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>411</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>412</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>413</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>414</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>415</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>416</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>417</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>418</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>419</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>420</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>421</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>422</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>423</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>424</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>425</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>426</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>427</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>428</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>429</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>430</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>431</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>432</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>433</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>434</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>435</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>436</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>437</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>438</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>439</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>440</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>441</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>442</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>443</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>444</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>445</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>446</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>447</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>448</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>449</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>450</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>451</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>452</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>453</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>454</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>455</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>456</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>457</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>458</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>459</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>460</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>461</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>462</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>463</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>464</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>465</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>466</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>467</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>468</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>469</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>470</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>471</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>472</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>473</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>474</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>475</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>476</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>477</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>478</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>479</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>480</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>481</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>482</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>483</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>484</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>485</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>486</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>487</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>488</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>489</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>490</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>491</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>492</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>493</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>494</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>495</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>496</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>497</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>498</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>499</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>500</v>
       </c>
